--- a/real.xlsx
+++ b/real.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="345">
   <si>
     <t>GROUP 2</t>
   </si>
@@ -285,7 +285,7 @@
     <t>R&amp;D spending</t>
   </si>
   <si>
-    <t>As a service company, their investment is on their employees' upskilling. They have invested 
+    <t>As a service company, our investment is on our employees' upskilling. They have invested 
 $450m for the year 2020.</t>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <t>Rs 36,000 crore</t>
   </si>
   <si>
-    <t>Microsoft's research and development expenditure amounted to 19.3 billion U.S in 2020.</t>
+    <t>Microsoft's research and development expenditure amounted to 19.3 billion USD in 2020.</t>
   </si>
   <si>
     <t>212 Million $ as on 2019</t>
@@ -389,7 +389,7 @@
     <t>Market presence</t>
   </si>
   <si>
-    <t>EY competes with Deloitte, PwC, KPMG for market share in providing advisory, assurance, tax and transaction services that help solve their client's toughest challenges and build a better working world for all.</t>
+    <t>EY competes with Deloitte, PwC, KPMG for market share in providing advisory, assurance, tax and transaction services that help solve our client's toughest challenges and build a better working world for all.</t>
   </si>
   <si>
     <t>Tata Motors became an international brand in 1961 and
@@ -418,7 +418,7 @@
   </si>
   <si>
     <t>Contribute to significant indirect economic impacts which culminate to increased economic activity and enhance the quality of life. theyhelp transport people and goods, thereby enabling people,
- enterprises and institutions to realize new possibilities. The vast value chain of automobile companies supports numerous jobs. Our community development agenda empowers communities to carve a path for economic and societal prosperity</t>
+ enterprises and institutions to realize new possibilities. The vast value chain of automobile companies supports numerous jobs. our community development agenda empowers communities to carve a path for economic and societal prosperity</t>
   </si>
   <si>
     <t>Employment</t>
@@ -449,7 +449,7 @@
   </si>
   <si>
     <t>Gender equality is one of our key issues and theyare continuously working towards the same.
- Our commitment towards gender diversity is reflected in Tata Code of Conduct and Tata values
+ our commitment towards gender diversity is reflected in Tata Code of Conduct and Tata values
  of understanding and unity. theyhave target to increase the number of women at the shop-floor
  level to 20% from the current 3% by next 2 years. theyhave initiated program like “GearUP”, a skill
  development program, to facilitate women in leadership position. theyhave developed a holistic
@@ -484,7 +484,7 @@
     <t>EY has a network of over 500 learning professionals who can offer a broad range of services to support all levels of organization — including leadership definition and development programs and a variety of assessments and coaching sessions.</t>
   </si>
   <si>
-    <t>The aspect of employees’ training and education promotes the level of job satisfaction amongst managers in different levels of management. Moreover, it provides them with an opportunity to progress through their career path (Kirby &amp; Riley 2006). Therefore, it is essential for H&amp;M to ensure that its human resource management practices and strategies align with the firm’s vision and goals.</t>
+    <t>The aspect of employees’ training and education promotes the level of job satisfaction amongst managers in different levels of management. Moreover, it provides them with an opportunity to progress through our career path (Kirby &amp; Riley 2006). Therefore, it is essential for H&amp;M to ensure that its human resource management practices and strategies align with the firm’s vision and goals.</t>
   </si>
   <si>
     <t>Education is one of focus areas identified in our Corporate Social Responsibility policy. At Tata
@@ -540,7 +540,7 @@
     <t>EY Continuously safeguarded the quality of its service by delivering exceptional client service: connected, responsive and insightful. It is trying to Gain full insight into sectors, businesses, and needs of its clients while Providing assurance on the financial and non-financial performance of organizations</t>
   </si>
   <si>
-    <t>Company believes being transparent — clear and open — about how and where their products are made, is an important part of helping them become more sustainable. The more they share, the more they learn, and the more they can identify the areas to focus on. It’s also really important for us to know as much as possible about the products you buy, so you can make informed decisions, and feel confident that the items you own were made with responsibility and sustainability in mind.</t>
+    <t>Company believes being transparent — clear and open — about how and where our products are made, is an important part of helping them become more sustainable. The more they share, the more they learn, and the more they can identify the areas to focus on. It’s also really important for us to know as much as possible about the products you buy, so you can make informed decisions, and feel confident that the items you own were made with responsibility and sustainability in mind.</t>
   </si>
   <si>
     <t>TML has a well-defined Recall Process which was reviewed &amp; approved in principle by CSC members on Feb 15. Head of Engineering Research Centre of TML is overall responsible for managing product recall. The Recall  Process has been framed based on global benchmark practices and recall related regulatory aspects of various countries. The Recall Process is aimed at providing the framework to address the vehicle recall due to Safety Defect in the vehicle due to design, manufacturing or assembly problem undue risk to the safety of vehicle or user and incorrect product labelling.</t>
@@ -549,7 +549,7 @@
     <t>Corporate Social Responsibility (CSR) activities.</t>
   </si>
   <si>
-    <t>EY believes business must do more to foster sustainable inclusive growth.They created EY Ripples – a global platform that brings greater scale and sharper focus to strengthen their communities.</t>
+    <t>EY believes business must do more to foster sustainable inclusive growth.They created EY Ripples – a global platform that brings greater scale and sharper focus to strengthen our communities.</t>
   </si>
   <si>
     <t>H&amp;M Hennes &amp; Mauritz Retail Private Limited (the ‘Company’) is one of the world’s leading fashion and design company. As a responsible Company, it has since its inception, participated in social activities which help in improving the quality of life of the communities in which it operates. Aligned with its overall sustainability vision, activities will be undertaken to address various needs in the communities in which it operates.</t>
@@ -676,7 +676,7 @@
  The Company rely on third parties for sourcing raw materials, parts and components used in the manufacture of the Company’s products. At the local level, the Company are exposed to reliance on smaller enterprises where the risk of insolvency is greater.</t>
   </si>
   <si>
-    <t>Under their sustainable procurement policy, their operating companies are required to purchase, where possible, products which do not adversely affect the environment, specifically:
+    <t>Under our sustainable procurement policy, our operating companies are required to purchase, where possible, products which do not adversely affect the environment, specifically:
 1. Minimal use of virgin material in the product.
 2. Replacement of disposables with reusables or recyclables. 
 3. Minimal environmental impact over the life of the relevant product or service.
@@ -718,17 +718,17 @@
   </si>
   <si>
     <t>Microsoft will Become water positive by 2030.
-Microsoft will reduce the water intensity of their direct operations,
+Microsoft will reduce the water intensity of our direct operations,
 replenish in water-stressed regions where theywork, and enable access to 1.5 million people.
-In FY20 Microsoft increased their water replenishment by 1,621,629 m3</t>
-  </si>
-  <si>
-    <t>Their businesses depend on and affect water. Some of their businesses uses a lot of water in production, including where it is scarce and non-availability is a risk. Water stress can affect their suppliers, their communities and the biodiversity of the areas in which they operate.
-They aim to use water responsibly and sustainably and to protect their water sources. They abide by all local wastewater treatment laws, and in many cases exceed them. By doing this, they protect their own resources and help the communities in which they operate to have access to safe, good quality, water.
+In FY20 Microsoft increased our water replenishment by 1,621,629 m3</t>
+  </si>
+  <si>
+    <t>our businesses depend on and affect water. Some of our businesses uses a lot of water in production, including where it is scarce and non-availability is a risk. Water stress can affect our suppliers, our communities and the biodiversity of the areas in which they operate.
+They aim to use water responsibly and sustainably and to protect our water sources. They abide by all local wastewater treatment laws, and in many cases exceed them. By doing this, they protect our own resources and help the communities in which they operate to have access to safe, good quality, water.
 According to them, using water efficiently and in accordance with best practice will reduce costs and contribute to global efforts to protect the availability of clean, safe and affordable water.</t>
   </si>
   <si>
-    <t>In 2018, Shell's intake of freshwater was 199 million cubic meters, about the same as 2017. Around 90% of their freshwater intake was used for refining oil products and chemicals, with the balance mainly consumed in oil and gas production. Around 40% of freshwater intake was from public utilities such as municipal water supplies.</t>
+    <t>In 2018, Shell's intake of freshwater was 199 million cubic meters, about the same as 2017. Around 90% of our freshwater intake was used for refining oil products and chemicals, with the balance mainly consumed in oil and gas production. Around 40% of freshwater intake was from public utilities such as municipal water supplies.</t>
   </si>
   <si>
     <t>Bio diversity</t>
@@ -746,10 +746,10 @@
 data to Azure that is now freely available for use by the conservation community. </t>
   </si>
   <si>
-    <t>In order to develop mitigation plans they want to understand how their businesses affects biodiversity. They expect their businesses to have conducted biodiversity risk assessments so as to identify biodiversity issues relevant to their facilities, operations and value chains.</t>
-  </si>
-  <si>
-    <t>Shell has developed biodiversity action plans when operating in areas that are rich in biodiversity, known as critical habitats, to assess and mitigate their impact on local biodiversity and dependent communities. To improve its environmental performance, including protecting biodiversity, they work with scientific and conservation organisations around the world.</t>
+    <t>In order to develop mitigation plans they want to understand how our businesses affects biodiversity. They expect our businesses to have conducted biodiversity risk assessments so as to identify biodiversity issues relevant to our facilities, operations and value chains.</t>
+  </si>
+  <si>
+    <t>Shell has developed biodiversity action plans when operating in areas that are rich in biodiversity, known as critical habitats, to assess and mitigate our impact on local biodiversity and dependent communities. To improve its environmental performance, including protecting biodiversity, they work with scientific and conservation organisations around the world.</t>
   </si>
   <si>
     <t>Emmission/ Carbon Emmission</t>
@@ -762,7 +762,7 @@
 positive by 2040 by reducing emissions by increasing energy efficiency</t>
   </si>
   <si>
-    <t>JLR is committed to  realising our Blueprint vision of future mobility. theycall this  Destination Zero - zero emissions, zero accidents and zero  congestion - harnessing new technologies to enable smart  integrated mobility and improve lives in the communities they call home. Diesel engines have reduced  CO2 emissions significantly over  the past decade. New diesel engines typically have similar  levels of NOx and particulate  emissions to their equivalent  petrol engines, while achieving  up-to 20% better fuel economy and up-to 5% lower CO2 emissions.</t>
+    <t>JLR is committed to  realising our Blueprint vision of future mobility. theycall this  Destination Zero - zero emissions, zero accidents and zero  congestion - harnessing new technologies to enable smart  integrated mobility and improve lives in the communities they call home. Diesel engines have reduced  CO2 emissions significantly over  the past decade. New diesel engines typically have similar  levels of NOx and particulate  emissions to our equivalent  petrol engines, while achieving  up-to 20% better fuel economy and up-to 5% lower CO2 emissions.</t>
   </si>
   <si>
     <t xml:space="preserve">• Microsoft Reduced emissions across all scopes
@@ -775,7 +775,7 @@
 </t>
   </si>
   <si>
-    <t>Their target is to reduce greenhouse gas emissions by 8-10% by 2020, compared with a 2015 frozen efficiency baseline from which performance is projected, assuming no improvement in current efficiencies.
+    <t>our target is to reduce greenhouse gas emissions by 8-10% by 2020, compared with a 2015 frozen efficiency baseline from which performance is projected, assuming no improvement in current efficiencies.
 In 2019, our businesses generated 19.3 million tonnes of greenhouse gas emissions and consumed 264.3 million gigajoules of energy. This represents no change compared to 2018. theyoutperformed our target by 1.8%.</t>
   </si>
   <si>
@@ -800,12 +800,12 @@
 waste otherwise headed to landfills and incineration from campuses and datacenters.</t>
   </si>
   <si>
-    <t>Their intention is to minimise waste and treat it as a resource to improve efficiency, lower cost and reduce our impact on the environment. They aim to recycle and reuse waste, converting it into energy or safely returning it to the environment, as much as possible.
+    <t>our intention is to minimise waste and treat it as a resource to improve efficiency, lower cost and reduce our impact on the environment. They aim to recycle and reuse waste, converting it into energy or safely returning it to the environment, as much as possible.
 They are committed to turning today’s waste into a resource for tomorrow, contributing to the creation of a circular economy, based on recovery and reuse.
 In 2019, Swire Pacific sent 74,307 tonnes of waste to landfills, 12.5% more than in 2018. Swire Properties, including its tenants, contributed almost 50% of this. The 2019 increase is driven by the inclusion of cargo waste at Cathay Pacific Services and waste from the HKRI Taikoo Hui and Middle House developments in Shanghai.</t>
   </si>
   <si>
-    <t>In 2018, Shell sent close to 400,000 tonnes off-site for recycling or reuse. Six of their downstream manufacturing sites sent more than 50% of their waste generated during the year for recycling or reuse in 2018. Of these six, three sites sent more than 80% of their waste for recycling
+    <t>In 2018, Shell sent close to 400,000 tonnes off-site for recycling or reuse. Six of our downstream manufacturing sites sent more than 50% of our waste generated during the year for recycling or reuse in 2018. Of these six, three sites sent more than 80% of our waste for recycling
  and reuse.</t>
   </si>
   <si>
@@ -823,8 +823,8 @@
  and those of the technology partners. TML is also leveraging synergies across Tata group companies to drive electrification.</t>
   </si>
   <si>
-    <t>They depend on the environment. If their business is to thrive in the long term, they must protect it. Over the years, they have made progress in water management, waste recycling and reduction of carbon emissions.
-Each of their divisions has operations which comply with ISO 14001 standards. In 2018, the environmental management system in the Hong Kong portfolio of our property division received the latest ISO 14001:2015 certification from the Hong Kong Quality Assurance Agency.</t>
+    <t>They depend on the environment. If our business is to thrive in the long term, they must protect it. Over the years, they have made progress in water management, waste recycling and reduction of carbon emissions.
+Each of our divisions has operations which comply with ISO 14001 standards. In 2018, the environmental management system in the Hong Kong portfolio of our property division received the latest ISO 14001:2015 certification from the Hong Kong Quality Assurance Agency.</t>
   </si>
   <si>
     <t>Shells environmental product trading business has been operating in compliance and voluntary emissions markets since 2003.</t>
@@ -862,8 +862,7 @@
  remanufacturing since FY 2011-12.</t>
   </si>
   <si>
-    <t xml:space="preserve">Although there is no reduction in energy consumption by Microsoft.By 2025, Microsoft will reach 100 percent renewable energy goal by purchasing enough renewable energy to match our electricity consumption at our datacenters, buildings, and
-campuses worldwide. </t>
+    <t xml:space="preserve">Although there is no reduction in energy consumption by Microsoft.By 2025, Microsoft will reach 100 percent renewable energy goal by purchasing enough renewable energy to match our electricity consumption at our datacenters, buildings, and campuses worldwide. </t>
   </si>
   <si>
     <t>In 2019, Swire reduced annual energy consumption by nearly 5 million kWh by replacing chillers. Retrofitting 98 conventional fans with energy efficient electronically-commutated motor plug fans is expected to reduce energy consumption by nearly 600,000 kWh.</t>
@@ -880,12 +879,12 @@
 • In FY20, theydiverted more than 60,000 metric tons of the solid waste otherwise headed to landfills and incineration from our campuses and datacenters</t>
   </si>
   <si>
-    <t>In 2019, they developed a group waste management policy, which guided their approach to reducing waste.
-They are improving how they collect and monitor their information on waste. They are developing and recommending comprehensive data protocols – including data collection and calculation methodologies – and setting operational boundaries.
-As part of SwireTHRIVE, they are developing 2030 targets for the percentage of their waste diverted from landfill and for percentages of their waste recycled, reused and recovered.</t>
-  </si>
-  <si>
-    <t>In 2019, theydisposed of 2,113 thousand tonnes of hazardous and non-hazardous waste, which is broadly comparable with 2018.</t>
+    <t>In 2019, they developed a group waste management policy, which guided our approach to reducing waste.
+They are improving how they collect and monitor our information on waste. They are developing and recommending comprehensive data protocols – including data collection and calculation methodologies – and setting operational boundaries.
+As part of SwireTHRIVE, they are developing 2030 targets for the percentage of our waste diverted from landfill and for percentages of our waste recycled, reused and recovered.</t>
+  </si>
+  <si>
+    <t>In 2019, they disposed of 2,113 thousand tonnes of hazardous and non-hazardous waste, which is broadly comparable with 2018.</t>
   </si>
   <si>
     <t>Investing in Renewable Energy</t>
@@ -898,7 +897,7 @@
  RE capacity was enhanced by 2MWp Roof-top Solar PV Project at Lucknow and Pimpri Pune Plants and 0.5MW at Chinchwad Pune in FY 2018-19, which will help offset GHG emissions in the FY 2019-20.</t>
   </si>
   <si>
-    <t>They encourage the use of renewable energy in their operations. In 2019, Swire Properties, Swire Coca-Cola and HAECO Xiamen generated 16.2 million kWh of electricity from renewable energy sources.
+    <t>They encourage the use of renewable energy in our operations. In 2019, Swire Properties, Swire Coca-Cola and HAECO Xiamen generated 16.2 million kWh of electricity from renewable energy sources.
 Swire Coca-Cola has committed to using 100% renewable electricity for its core operations by 2026.</t>
   </si>
   <si>
@@ -914,7 +913,7 @@
 more carbon-efficient, are due to Microsoft’s extensive investments in IT efficiency from from chips to datacenter infrastructure, as well as renewable energy.</t>
   </si>
   <si>
-    <t>In 2019, theysent more than 400 thousand tonnes off-site for recycling or reuse. Three of our downstream refineries sent more than 80% of their waste generated during the year for recycling or reuse in 2019.</t>
+    <t>In 2019, they sent more than 400 thousand tonnes off-site for recycling or reuse. Three of our downstream refineries sent more than 80% of our waste generated during the year for recycling or reuse in 2019.</t>
   </si>
   <si>
     <t>Waste Management</t>
@@ -950,9 +949,9 @@
 across the globe.</t>
   </si>
   <si>
-    <t>In 2018, they consumed 17.13 million m3 of water, a 38% increase from 2017. This increase is mainly due to the inclusion of 11 additional bottling plants at Swire Coca-Cola. Swire Coca-Cola accounts for 78.5% of their water use.
+    <t>In 2018, they consumed 17.13 million m3 of water, a 38% increase from 2017. This increase is mainly due to the inclusion of 11 additional bottling plants at Swire Coca-Cola. Swire Coca-Cola accounts for 78.5% of our water use.
 Water consumption at Swire Properties increased due to the inclusion of the US Miami portfolio in this year’s reporting boundary. Water consumption at the Trading &amp; Industrial division decreased, mainly due to the disposal of the Swire Pacific Cold Storage business in August 2018. Water consumption at the Marine Services division decreased, due to the reduction in dock work at Hongkong United Dockyards. Water consumption at Swire Pacific Offshore is immaterial and is not included in the report.
-They set water intensity targets and encouraged operating companies to use water more efficiently. They have aimed to reduce their water consumption by 3-4% from its 2015 frozen efficiency baseline (a frozen efficiency baseline being one from which performance is projected with the assumption of no improvement in current efficiencies). The reduction target takes into account projections of water consumption at Swire Coca-Cola’s recently acquired bottling plants. They even exceeded our 2018 target by 2.63%.</t>
+They set water intensity targets and encouraged operating companies to use water more efficiently. They have aimed to reduce our water consumption by 3-4% from its 2015 frozen efficiency baseline (a frozen efficiency baseline being one from which performance is projected with the assumption of no improvement in current efficiencies). The reduction target takes into account projections of water consumption at Swire Coca-Cola’s recently acquired bottling plants. They even exceeded our 2018 target by 2.63%.</t>
   </si>
   <si>
     <t>As an energy company theyneed water for our operations, and this can affect other water users. Using water as efficiently as possible has been part of our environmental standards for many years. theyare continuing to step up our efforts to conserve fresh water by reducing consumption and increasing water reuse and recycling.</t>
@@ -972,7 +971,7 @@
 Swire Properties aimed to recycle 25% of its commercial waste in Mainland China. In 2019, it recycled 32.5%.</t>
   </si>
   <si>
-    <t>theyare aiming for zero waste by reducing waste generated and increasing reuse and recycling in our businesses and supply chains. Our businesses will conduct internal reviews to look at the waste theygenerate, and theywill set goals for waste reduction, reuse and recycling by the end of 2022. This will include information on the metrics to measure progress and performance going forward.</t>
+    <t>theyare aiming for zero waste by reducing waste generated and increasing reuse and recycling in our businesses and supply chains. our businesses will conduct internal reviews to look at the waste theygenerate, and theywill set goals for waste reduction, reuse and recycling by the end of 2022. This will include information on the metrics to measure progress and performance going forward.</t>
   </si>
   <si>
     <t>Energy Management</t>
@@ -996,8 +995,8 @@
     <t>Natural Resource Management</t>
   </si>
   <si>
-    <t>In line with the SEBI Listing Regulations, the Company has emailed soft copies of its Annual Report to all those shareholders who have registered their email address for the said purpose. As in the previous year, an Abridged Annual Report for FY 2018-19 is being mailed to shareholders, thereby enabling the Company to reduce costs and save natural resources
-Our value-creation model lays the foundation of our business. It ensures the  optimal utilisation of our resources and management of relations through our value chain. The process is dynamic and responsive to developments in the external environment.</t>
+    <t>In line with the SEBI Listing Regulations, the Company has emailed soft copies of its Annual Report to all those shareholders who have registered our email address for the said purpose. As in the previous year, an Abridged Annual Report for FY 2018-19 is being mailed to shareholders, thereby enabling the Company to reduce costs and save natural resources
+our value-creation model lays the foundation of our business. It ensures the  optimal utilisation of our resources and management of relations through our value chain. The process is dynamic and responsive to developments in the external environment.</t>
   </si>
   <si>
     <t>Swire Pacific is committed to being a good steward of the natural resources and biodiversity under its influence and to ensuring that all potential adverse impacts of its operations on the environment are identified and appropriately managed. The implementation of actions to meet this commitment is overseen by the Swire Group Environment Committee.
@@ -1021,10 +1020,10 @@
  RE capacity was enhanced by 2MWp Roof-top Solar PV Project at Lucknow and Pimpri Pune Plants and 0.5MW at Chinchwad Pune in FY 2019-20, which will help offset GHG emissions in the FY 2020-21.</t>
   </si>
   <si>
-    <t>Their target is to reduce greenhouse gas emissions by 8-10% by 2020, compared with a 2015 frozen efficiency baseline from which performance is projected, assuming no improvement in current efficiencies.</t>
-  </si>
-  <si>
-    <t>Our direct GHG emissions decreased from 71 million tonnes of CO2 equivalent in 2018 to 70 million tonnes of CO2 equivalent in 2019. The main reasons for the decrease were divestments (for example, in Argentina, Canada, Iraq, Malaysia, Norway and the UK). These decreases were partly offset by the start-up of the Prelude floating liquefied natural gas facility in Australia.</t>
+    <t>our target is to reduce greenhouse gas emissions by 8-10% by 2020, compared with a 2015 frozen efficiency baseline from which performance is projected, assuming no improvement in current efficiencies.</t>
+  </si>
+  <si>
+    <t>our direct GHG emissions decreased from 71 million tonnes of CO2 equivalent in 2018 to 70 million tonnes of CO2 equivalent in 2019. The main reasons for the decrease were divestments (for example, in Argentina, Canada, Iraq, Malaysia, Norway and the UK). These decreases were partly offset by the start-up of the Prelude floating liquefied natural gas facility in Australia.</t>
   </si>
   <si>
     <t>Biodiversity Management</t>
@@ -1040,14 +1039,14 @@
   </si>
   <si>
     <t>As part of SwireTHRIVE, they have adopted a Biodiversity Policy. It is the policy of Swire Pacific to:
-1. Ensure that all companies in which Swire Pacific has a controlling interest undertake biodiversity assessments where relevant to their operations
+1. Ensure that all companies in which Swire Pacific has a controlling interest undertake biodiversity assessments where relevant to our operations
 2. Minimise the adverse impact of its operations on biodiversity and ecosystems, including protecting endangered species and promoting the sustainable use of natural resources important to biological diversity
 3. Encourage its operating companies to support relevant and appropriate biodiversity and conservation initiatives and participate in industry-specific working groups related to biodiversity and conservation
 4. Promote awareness of biodiversity and conservation issues among our employees, customers, suppliers and others with whom theydo business
 5. Promote the restoration of ecosystems where important to the areas in which our businesses operate</t>
   </si>
   <si>
-    <t>theyare investing in protecting and developing natural ecosystems, such as forests, grasslands and wetlands, to capture carbon from the atmosphere and help our customers offset their emissions. In 2021, theyexpect to invest around $100 million in nature-based solutions.</t>
+    <t>theyare investing in protecting and developing natural ecosystems, such as forests, grasslands and wetlands, to capture carbon from the atmosphere and help our customers offset our emissions. In 2021, theyexpect to invest around $100 million in nature-based solutions.</t>
   </si>
   <si>
     <t>Commitment to Renewable energy</t>
@@ -1056,7 +1055,7 @@
     <t>H&amp;M is already committed to 100% renewable power and has been making fast progress towards this goal; in 2016 the company achieved more than 90% renewable power for its global operations</t>
   </si>
   <si>
-    <t>TML encourages its supply chain partners to fulfill their energy requirements from renewable sources.Minda Stoneridge, a supplier covered under the Sustainable Supply Chain Initiative, has installed a rooftop solar plant with a generation capacity of 741 kW. As a result of this installation, they have achieved 12% reduction in their carbon emissions in FY 2018-19.</t>
+    <t>TML encourages its supply chain partners to fulfill our energy requirements from renewable sources.Minda Stoneridge, a supplier covered under the Sustainable Supply Chain Initiative, has installed a rooftop solar plant with a generation capacity of 741 kW. As a result of this installation, they have achieved 12% reduction in our carbon emissions in FY 2018-19.</t>
   </si>
   <si>
     <t>By 2025, Microsoft will reach our 100 percent renewable energy 
@@ -1101,7 +1100,7 @@
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>They are now cleaning up their previously done act due to consumer pressure, aiming to be ‘sustainable’ by 2020.</t>
+      <t>They are now cleaning up our previously done act due to consumer pressure, aiming to be ‘sustainable’ by 2020.</t>
     </r>
   </si>
   <si>
@@ -1116,7 +1115,7 @@
     <t>Pollution management</t>
   </si>
   <si>
-    <t>In October 2019, they launched the "Say No to Single-Use Plastic" campaign as part of their efforts to help reduce employees' plastic footprint. Every shore-based employee received a pack comprising reusable items in a cotton bag including a metal straw, a BPA-free reusable plastic bottle / aluminium bottle, and a stainless steel fork and spoon.</t>
+    <t>In October 2019, they launched the "Say No to Single-Use Plastic" campaign as part of our efforts to help reduce employees' plastic footprint. Every shore-based employee received a pack comprising reusable items in a cotton bag including a metal straw, a BPA-free reusable plastic bottle / aluminium bottle, and a stainless steel fork and spoon.</t>
   </si>
   <si>
     <t>theyhave developed more efficient transport fuels for customers and focused on improving motorists’ fuel efficiency. theyalso work to reduce air pollution from our operations, including limiting emissions of nitrogen oxide, sulphur dioxide and volatile organic compounds.</t>
@@ -1147,7 +1146,7 @@
     <t>Freedom of Association and Collective Bargaining</t>
   </si>
   <si>
-    <t xml:space="preserve">they respect the principles of freedom of association, the right to collective bargaining, non-discrimination and equal opportunity, along with adequate work conditions, adequate remuneration and the elimination of forced and child labour. </t>
+    <t xml:space="preserve">They respect the principles of freedom of association, the right to collective bargaining, non-discrimination and equal opportunity, along with adequate work conditions, adequate remuneration and the elimination of forced and child labour. </t>
   </si>
   <si>
     <t>Product Packaging &amp; Labelling</t>
@@ -1182,7 +1181,7 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">As an approach, Tata Motors’ scope of Employability Programmes address the huge pool of school dropout unemployed youth. The courses are available for youths from our educational programme, those who have a dire need to support their families or don’t wish to continue education. Given the limited opportunity to productively participate in the formal economy, our skill development programme in India “accelerate aspirations” of school dropout youth in sectors which provide opportunity to those undergone continuous formal learning and training (ITI and Diploma). 
+      <t xml:space="preserve">As an approach, Tata Motors’ scope of Employability Programmes address the huge pool of school dropout unemployed youth. The courses are available for youths from our educational programme, those who have a dire need to support our families or don’t wish to continue education. Given the limited opportunity to productively participate in the formal economy, our skill development programme in India “accelerate aspirations” of school dropout youth in sectors which provide opportunity to those undergone continuous formal learning and training (ITI and Diploma). 
 </t>
     </r>
     <r>
@@ -1253,7 +1252,7 @@
     <t>Members of the Health and Safety Committee are senior representatives from our five divisions. The Committee is responsible for developing group-wide health and safety policies and guidelines, monitoring divisional performance, promoting education and training, sharing best practices and developing internal health and safety capabilities.</t>
   </si>
   <si>
-    <t>Our employees and contractors work in some of the remotest places, taking great care to unlock energy the world needs. Keeping them safe and well is our top priority. 
+    <t>our employees and contractors work in some of the remotest places, taking great care to unlock energy the world needs. Keeping them safe and well is our top priority. 
 Teams are on standby to transport sick or injured colleagues to hospital from Shell’s platforms, vessels and remote bases anywhere on the planet within four hours. It can mean a long helicopter flight or turning a ship around.
 Every minute counts in a medical emergency, and an accurate diagnosis is critical. Telemedicine technology is helping doctors to reach better decisions in remote places, using systems that provide access to a wide range of expert medical expertise at any time through internet and satellite connections.</t>
   </si>
@@ -1264,7 +1263,7 @@
     <t>The H&amp;M Foundation is a non-profit global foundation, privately funded by the Stefan Persson family, founders and main owners of H&amp;M group. Its mission is to drive long lasting positive change and improve living conditions by investing in people, communities and innovative ideas.</t>
   </si>
   <si>
-    <t>Shell supports community projects that are based on the needs of local communities. Their ambition is that, by 2030, they will be providing a reliable electricity supply to 100 million people in the developing world.
+    <t>Shell supports community projects that are based on the needs of local communities. our ambition is that, by 2030, they will be providing a reliable electricity supply to 100 million people in the developing world.
 theyhave implemented community feedback mechanisms at all of our operations and projects to receive, track and respond to questions and complaints from community members. This enables us to capture and resolve concerns quickly in a transparent way, and to track our performance.</t>
   </si>
   <si>
@@ -1277,7 +1276,7 @@
     <t>In 2019, they introduced the Swire Pacific Limited Human Rights Policy, which is informed by the International Bill of Human Rights and by the International Labour Organisation’s Declaration on Fundamental Principles and Rights at Work. theycomply with national laws where they conflict with human rights standards but still do our best to respect the latter.</t>
   </si>
   <si>
-    <t xml:space="preserve">theyhave implemented the Voluntary Principles on Security and Human Rights since their development in 2000. Shell avoids the use of armed security with the exception of where there is a requirement under local laws or in countries where the threats are most severe. </t>
+    <t xml:space="preserve">theyhave implemented the Voluntary Principles on Security and Human Rights since our development in 2000. Shell avoids the use of armed security with the exception of where there is a requirement under local laws or in countries where the threats are most severe. </t>
   </si>
   <si>
     <t>Child Labour / Forced or Compulsory Labour</t>
@@ -1292,7 +1291,7 @@
     <t>theyprohibit the use of child labour in our businesses and supply chains. All our employees are above the legal age of employment in the countries in which they are employed. Interns and those gaining work experience who are under the legal age of employment are only engaged where it is legal and safe to do so.</t>
   </si>
   <si>
-    <t xml:space="preserve">theyrespect the principles of freedom of association, the right to collective bargaining, non-discrimination and equal opportunity, along with adequate work conditions, adequate remuneration and the elimination of forced and child labour. </t>
+    <t xml:space="preserve">they respect the principles of freedom of association, the right to collective bargaining, non-discrimination and equal opportunity, along with adequate work conditions, adequate remuneration and the elimination of forced and child labour. </t>
   </si>
   <si>
     <t>Human Rights Assessment</t>
@@ -1311,7 +1310,7 @@
   </si>
   <si>
     <t>TML’s ‘Talent on Demand’ initiative is a pull-based strategy where employees, particularly from the departments with high attrition, are trained to build talent pipelines on demand..
-JLR is driven by passionate people who design, develop and manufacture cars that their customers love. The Company’s long-term success relies on attracting and nurturing the next generation of bright minds. To inspire and attract a diverse range of talent, JLR is investing in innovative recruitment strategies.</t>
+JLR is driven by passionate people who design, develop and manufacture cars that our customers love. The Company’s long-term success relies on attracting and nurturing the next generation of bright minds. To inspire and attract a diverse range of talent, JLR is investing in innovative recruitment strategies.</t>
   </si>
   <si>
     <t>Through a range of formal and informal channels, management engages with our employees on a regular basis. The Shell People Survey is one of the principal tools used to measure employee engagement, motivation, affiliation and commitment to Shell.</t>
@@ -1326,7 +1325,7 @@
  4. Working Environment</t>
   </si>
   <si>
-    <t xml:space="preserve">Shell expects contractors and suppliers to respect freedom of association and collective bargaining; to provide a safe, secure and healthy workplace, and the provision of wages and benefits that meet or exceed the national legal standards. Our contractors and suppliers should provide workers with whistleblowing mechanisms where grievances related to the above topics can be logged confidentially. </t>
+    <t xml:space="preserve">Shell expects contractors and suppliers to respect freedom of association and collective bargaining; to provide a safe, secure and healthy workplace, and the provision of wages and benefits that meet or exceed the national legal standards. our contractors and suppliers should provide workers with whistleblowing mechanisms where grievances related to the above topics can be logged confidentially. </t>
   </si>
   <si>
     <t>Customer Health and Safety</t>
@@ -1377,7 +1376,7 @@
 Declaration on Fundamental Principles and Rights at Work </t>
   </si>
   <si>
-    <t xml:space="preserve">Human rights is embedded into the Shell General Business Principles (SGBPs). Our Code of Conduct sets out the procedures and processes people are required to follow for risk areas, which include assessment  and management. The Shell Supplier Principles include specific labour and human rights expectations for contractors and suppliers. </t>
+    <t xml:space="preserve">Human rights is embedded into the Shell General Business Principles (SGBPs). our Code of Conduct sets out the procedures and processes people are required to follow for risk areas, which include assessment  and management. The Shell Supplier Principles include specific labour and human rights expectations for contractors and suppliers. </t>
   </si>
   <si>
     <t>Corporate Social Responsibility</t>
@@ -1492,7 +1491,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">1.5 lakh students engaged, more than 44% students scored above 60% in FY20 in their 10th standard pre-board exams
+      <t xml:space="preserve">1.5 lakh students engaged, more than 44% students scored above 60% in FY20 in our 10th standard pre-board exams
 </t>
     </r>
     <r>
@@ -1574,16 +1573,19 @@
     </r>
   </si>
   <si>
-    <t>theyhave maintained our numerous community initiatives and involvement with charities and nongovernmental organisations. theyhave provided training and staff development in a number of new ways. Our continuing commitment to health, safety and the environment saw a number of new initiatives, including a programme of work on climate change issues.</t>
+    <t>theyhave maintained our numerous community initiatives and involvement with charities and nongovernmental organisations. theyhave provided training and staff development in a number of new ways. our continuing commitment to health, safety and the environment saw a number of new initiatives, including a programme of work on climate change issues.</t>
+  </si>
+  <si>
+    <t>The CSR committee conducted two major site visits in 2018. The committee visited Nigeria and met Shell staff, government officials, and representatives from local non-governmental organizations to gain a deeper understanding of operations in the Niger Delta. Later the committee spent a day visiting the Moerdijk facility in the Netherlands, where they discussed process safety performance and local site challenges, including Shell's relationship with the local community.</t>
   </si>
   <si>
     <t>Environmental Sustainability</t>
   </si>
   <si>
-    <t>H&amp;M is taking a few positive steps to reduce their environmental impact, yet there is room for improvement. H&amp;M is a member of the Better Cotton Initiative, offers a recycling program where you can return clothes from any brand in-store, and as we've seen, it has set some positive targets in its Sustainability Report.</t>
-  </si>
-  <si>
-    <t>Tata Motors, under its environment related CSR – Vasundhara programme, makes concentrated efforts to increase the green cover. TML has planted 1,24,548 saplings (of indigenous varieties) across locations and ensured their survival rate is significantly high (85%).</t>
+    <t>H&amp;M is taking a few positive steps to reduce our environmental impact, yet there is room for improvement. H&amp;M is a member of the Better Cotton Initiative, offers a recycling program where you can return clothes from any brand in-store, and as we've seen, it has set some positive targets in its Sustainability Report.</t>
+  </si>
+  <si>
+    <t>Tata Motors, under its environment related CSR – Vasundhara programme, makes concentrated efforts to increase the green cover. TML has planted 1,24,548 saplings (of indigenous varieties) across locations and ensured our survival rate is significantly high (85%).</t>
   </si>
   <si>
     <t>The Swire Pacific Sustainable Development Fund earmarks HK$100 million per annum to invest in projects to improve our performance in sustainable development. This funding is available to support projects that would not otherwise meet our financial targets. Later in 2020, the Fund will be authorised to spend money on trials intended to reduce our environmental footprint.</t>
@@ -1595,7 +1597,7 @@
     <t>Health Care and Sanitation</t>
   </si>
   <si>
-    <t>Their health program has benefitted 3,99,619 people. Over 74% of the malnourished children are in healthy category and there has been positive change in the knowledge, attitude and the behaviour of the communities on health. Infusing sustainability is core to our approach; therefore, theystrengthen institutional delivery mechanism by enhancing the capacities of the personnel from the government on one hand while mentoring communities to take ownership of programmes on the other.</t>
+    <t>our health program has benefitted 3,99,619 people. Over 74% of the malnourished children are in healthy category and there has been positive change in the knowledge, attitude and the behaviour of the communities on health. Infusing sustainability is core to our approach; therefore, theystrengthen institutional delivery mechanism by enhancing the capacities of the personnel from the government on one hand while mentoring communities to take ownership of programmes on the other.</t>
   </si>
   <si>
     <t>theymaintain a strong focus on H&amp;S throughout our organisation. This reflects the critical importance that theyattach to the health and safety of our staff, those with whom theydo business and the communities in which theyoperate. theybelieve that H&amp;S is an integral element of overall business performance and that our commitment to its continuous H&amp;S improvement is essential to our success</t>
@@ -1607,11 +1609,11 @@
     <t>Sustainable development goals</t>
   </si>
   <si>
-    <t>The H&amp;M group is working to achieve its goal that by 2030, all the group’s brands will use only recycled or sustainably sourced materials in their collections – a goal that reflects the vision of a circular fashion industry. In 2017 the share of the overall product range made of recycled or sustainable materials was 35 percent.</t>
-  </si>
-  <si>
-    <t>Tata Motors have already addressed 15 of the 17 SDGs, and have demonstrated remarkable progress with some of their latest achievement being the nutrition initiatives undertaken at Jamshedpur.
-The Company has made conscious efforts to involve and promote SC/ST communities through their affirmative action programme called ‘Aadhar’.  Around 40% of their CSR efforts are earmarked towards Aadhar initiatives. Currently, Tata Motors have over 6000 SC/ST employees as a part of their workforce and around 34% of the apprentices/ trainees belong to the SC/ST Communities.
+    <t>The H&amp;M group is working to achieve its goal that by 2030, all the group’s brands will use only recycled or sustainably sourced materials in our collections – a goal that reflects the vision of a circular fashion industry. In 2017 the share of the overall product range made of recycled or sustainable materials was 35 percent.</t>
+  </si>
+  <si>
+    <t>Tata Motors have already addressed 15 of the 17 SDGs, and have demonstrated remarkable progress with some of our latest achievement being the nutrition initiatives undertaken at Jamshedpur.
+The Company has made conscious efforts to involve and promote SC/ST communities through our affirmative action programme called ‘Aadhar’.  Around 40% of our CSR efforts are earmarked towards Aadhar initiatives. Currently, Tata Motors have over 6000 SC/ST employees as a part of our workforce and around 34% of the apprentices/ trainees belong to the SC/ST Communities.
 In 2017-18, the company has reinforced its initiatives on topics related to Health, Education, Employability and the Environment with concrete achievements measured through different KPIs. Tata Motors positively touched lives of 6,44,000 people across these identified thrust areas.</t>
   </si>
   <si>
@@ -1624,16 +1626,16 @@
     <t>Sustainable Supply Chain</t>
   </si>
   <si>
-    <t>Building sustainability in supply chain presents an urgent imperative today when leading corporations across the world are extending their commitment to responsible business practices beyond their immediate boundaries. The case for enabling sustainable supply chain is driven by -
+    <t>Building sustainability in supply chain presents an urgent imperative today when leading corporations across the world are extending our commitment to responsible business practices beyond our immediate boundaries. The case for enabling sustainable supply chain is driven by -
 &gt; A need to protect business from the inherent social, environmental and governance challenges posed by supply networks.
 &gt; A need to build supplier loyalty.
 &gt; Tangible business gains from increased supply chain efficiencies.</t>
   </si>
   <si>
-    <t>Sustainable procurement helps to manage risks, improve efficiencies and reduce costs. They aim to procure goods in a way that does not degrade the environment and to only engage service providers who are accountable for their workplace practices.</t>
-  </si>
-  <si>
-    <t>Our approach to suppliers and contractors is set out in our Shell General Business Principles and Shell Supplier Principles. These principles cover requirements such as business integrity, health and safety, and human rights. Working with suppliers and contractors in this way is crucial to being a responsible member of society.</t>
+    <t>Sustainable procurement helps to manage risks, improve efficiencies and reduce costs. They aim to procure goods in a way that does not degrade the environment and to only engage service providers who are accountable for our workplace practices.</t>
+  </si>
+  <si>
+    <t>our approach to suppliers and contractors is set out in our Shell General Business Principles and Shell Supplier Principles. These principles cover requirements such as business integrity, health and safety, and human rights. Working with suppliers and contractors in this way is crucial to being a responsible member of society.</t>
   </si>
   <si>
     <t>Statutory Compliance</t>
@@ -1848,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1942,18 +1944,12 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -7052,7 +7048,7 @@
       <c r="F13" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="14" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7073,7 +7069,7 @@
       <c r="F14" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
@@ -7422,7 +7418,7 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>264</v>
       </c>
       <c r="B3" s="11"/>
@@ -7439,7 +7435,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>266</v>
       </c>
       <c r="B4" s="11"/>
@@ -7449,10 +7445,10 @@
       <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>269</v>
       </c>
       <c r="G4" s="30" t="s">
@@ -7460,7 +7456,7 @@
       </c>
     </row>
     <row r="5" ht="310.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="11"/>
@@ -7470,14 +7466,14 @@
       <c r="D5" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" ht="123.0" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>275</v>
       </c>
       <c r="B6" s="11"/>
@@ -7488,15 +7484,15 @@
         <v>277</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>280</v>
       </c>
       <c r="B7" s="11"/>
@@ -7507,13 +7503,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>283</v>
       </c>
       <c r="B8" s="11"/>
@@ -7532,7 +7528,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>287</v>
       </c>
       <c r="B9" s="11"/>
@@ -7543,7 +7539,7 @@
         <v>289</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="14" t="s">
         <v>290</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -7551,14 +7547,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>292</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>293</v>
       </c>
       <c r="E10" s="11"/>
@@ -7568,14 +7564,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>295</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>297</v>
       </c>
       <c r="E11" s="11"/>
@@ -7585,7 +7581,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>299</v>
       </c>
       <c r="B12" s="11"/>
@@ -7602,7 +7598,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>302</v>
       </c>
       <c r="B13" s="11"/>
@@ -7619,7 +7615,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>303</v>
       </c>
       <c r="B14" s="11"/>
@@ -7636,14 +7632,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>305</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="14" t="s">
         <v>307</v>
       </c>
       <c r="E15" s="11"/>
@@ -7655,7 +7651,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>309</v>
       </c>
       <c r="B16" s="11"/>
@@ -7674,7 +7670,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>313</v>
       </c>
       <c r="B17" s="11"/>
@@ -7685,7 +7681,7 @@
         <v>314</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="37" t="s">
         <v>315</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -7693,7 +7689,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>317</v>
       </c>
       <c r="B18" s="11"/>
@@ -7704,92 +7700,92 @@
         <v>319</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="37" t="s">
         <v>320</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>321</v>
+      <c r="A19" s="32" t="s">
+        <v>322</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="39" t="s">
-        <v>324</v>
+      <c r="F19" s="37" t="s">
+        <v>325</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="s">
-        <v>326</v>
+      <c r="A20" s="32" t="s">
+        <v>327</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="30" t="s">
         <v>276</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="39" t="s">
-        <v>328</v>
+      <c r="F20" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="33" t="s">
-        <v>330</v>
+      <c r="A21" s="32" t="s">
+        <v>331</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="33" t="s">
-        <v>335</v>
+      <c r="A22" s="32" t="s">
+        <v>336</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="39" t="s">
-        <v>337</v>
+      <c r="F22" s="37" t="s">
+        <v>338</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
-        <v>339</v>
+      <c r="A23" s="32" t="s">
+        <v>340</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="30" t="s">
@@ -7801,26 +7797,26 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>135</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>261</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="G24" s="40" t="s">
         <v>343</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="25">
